--- a/ExperimentalData/ChangeRHO/ChangeRHO_Triple.xlsx
+++ b/ExperimentalData/ChangeRHO/ChangeRHO_Triple.xlsx
@@ -5,19 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Plate design 1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Plate design 2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Triple None 1" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Triple None 2" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Triple High 1" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Triple High 2" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Triple Low 1" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Triple Low 2" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Triple Med 1" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Triple Med 2" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Triple Low 1" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Triple Low 2" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Triple High 1" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Triple High 2" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -210,10 +210,7 @@
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.77"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D1" s="0" t="s">
@@ -1047,8 +1044,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1057,7 +1054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1067,10 +1064,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="n">
@@ -1115,40 +1109,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>0.345756417878252</v>
+        <v>0.387934670415092</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>0.469776024337836</v>
+        <v>0.559453827594701</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.404471501077257</v>
+        <v>0.683290987294947</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0.411673251505848</v>
+        <v>0.377851073234584</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>0.398912903485682</v>
+        <v>0.554830554603239</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>0.376987309794453</v>
+        <v>0.439654075287293</v>
       </c>
       <c r="H2" s="5" t="n">
-        <v>0.456052686869599</v>
+        <v>0.411830058743051</v>
       </c>
       <c r="I2" s="5" t="n">
-        <v>0.424460990518575</v>
+        <v>0.36150786311561</v>
       </c>
       <c r="J2" s="5" t="n">
-        <v>0.503302780531886</v>
+        <v>0.415448786782571</v>
       </c>
       <c r="K2" s="5" t="n">
-        <v>0.459984982792237</v>
+        <v>0.195554631222069</v>
       </c>
       <c r="L2" s="5" t="n">
-        <v>0.334065726893814</v>
+        <v>0.456193217584716</v>
       </c>
       <c r="M2" s="5" t="n">
-        <v>0.422359991523096</v>
+        <v>0.427606805710506</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1156,40 +1150,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>0.486419446428702</v>
+        <v>0.0429029582391225</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>0.455242728350745</v>
+        <v>0.642841927681146</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0.463786212778494</v>
+        <v>0.58704528437231</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>0.486989388975336</v>
+        <v>0.531239041597381</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>0.477025068612383</v>
+        <v>0.532253372646837</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>0.461168803130349</v>
+        <v>0.543512857190033</v>
       </c>
       <c r="H3" s="5" t="n">
-        <v>0.451535325277654</v>
+        <v>0.452513175983495</v>
       </c>
       <c r="I3" s="5" t="n">
-        <v>0.429805442897271</v>
+        <v>0.55910680682923</v>
       </c>
       <c r="J3" s="5" t="n">
-        <v>0.478884793920888</v>
+        <v>0.631361148521496</v>
       </c>
       <c r="K3" s="5" t="n">
-        <v>0.429426229821883</v>
+        <v>0.250636364788908</v>
       </c>
       <c r="L3" s="5" t="n">
-        <v>0.429515858843058</v>
+        <v>0.449114790303679</v>
       </c>
       <c r="M3" s="5" t="n">
-        <v>0.505047890576981</v>
+        <v>0.437882665729421</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1197,40 +1191,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>0.408080526590236</v>
+        <v>0.0534255566839905</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.0554692818162282</v>
+        <v>0.0420059375737998</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.448193598801791</v>
+        <v>0.0408119835577186</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.67495911397668</v>
+        <v>0.0419776153895714</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.424427584870726</v>
+        <v>0.0431373211962248</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>0.469170252996338</v>
+        <v>0.346687446057324</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.458117959952079</v>
+        <v>0.589980806903528</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>0.400299675393723</v>
+        <v>0.560436904698716</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.447433372516176</v>
+        <v>0.465025044814233</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.442033765438703</v>
+        <v>0.381351722436796</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>0.403042330087851</v>
+        <v>0.296768564591168</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>0.452076729724744</v>
+        <v>0.376518556568848</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1238,40 +1232,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>0.0422578961799128</v>
+        <v>0.0504893735601894</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0417178535234036</v>
+        <v>0.0470403611618623</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.35212936718854</v>
+        <v>0.040364495342919</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.460193101319566</v>
+        <v>0.0398071317375487</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.421939564594473</v>
+        <v>0.0405872808330067</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.445433416556382</v>
+        <v>0.0421120115259709</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.565817517751337</v>
+        <v>0.0391115812827499</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.423368651473063</v>
+        <v>0.592486560065683</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.452758311434316</v>
+        <v>0.591073961899519</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.454126247447844</v>
+        <v>0.542246866984253</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.388771965848543</v>
+        <v>0.347528110864949</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.472014706469956</v>
+        <v>0.430968745762039</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1279,40 +1273,40 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>0.0407694386989936</v>
+        <v>0.0483781530926499</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0399662896410194</v>
+        <v>0.0475649731384739</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.039990260634921</v>
+        <v>0.0393379172915559</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.356664504589351</v>
+        <v>0.0403813053555882</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.456624781093517</v>
+        <v>0.0399378589788277</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.415954898083643</v>
+        <v>0.0397777535072042</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.540130404061765</v>
+        <v>0.0393984132898556</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.398301169936679</v>
+        <v>0.474930877931336</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.456115174160497</v>
+        <v>0.520220513535218</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.569118418412903</v>
+        <v>0.627109731725991</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.495147253844033</v>
+        <v>0.237379466589815</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.516906606048303</v>
+        <v>0.483111686791694</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1320,40 +1314,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>0.0424139532545028</v>
+        <v>0.0467399098150087</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.0402102562846816</v>
+        <v>0.0445079750241508</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.0411171907033492</v>
+        <v>0.0397519742482836</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0395386298405624</v>
+        <v>0.0372550549795668</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.350105189635207</v>
+        <v>0.0400464284760275</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.43495898212029</v>
+        <v>0.0400074363066852</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.539751421986226</v>
+        <v>0.0384177406760888</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.474027223935239</v>
+        <v>0.0395392039282137</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.442071578379563</v>
+        <v>0.414593852307036</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.42826126745555</v>
+        <v>0.72810264345347</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>0.478213585981622</v>
+        <v>0.228759599200654</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>0.544357550960776</v>
+        <v>0.342658857292657</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1361,40 +1355,40 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>0.0491388424652195</v>
+        <v>0.0572477980810816</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.040373976586243</v>
+        <v>0.0488272456410112</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.040340987677728</v>
+        <v>0.0419270016176851</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0411033714082134</v>
+        <v>0.0398275178000259</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0403625801345409</v>
+        <v>0.039654866129045</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.443344010724635</v>
+        <v>0.0388207510596773</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.48700616331957</v>
+        <v>0.0387023204857894</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.447211380094521</v>
+        <v>0.0381614198021176</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.437240134619086</v>
+        <v>0.477774939294871</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.398714371991486</v>
+        <v>0.60328385224061</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.484545593203555</v>
+        <v>0.488673232060847</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.510623155240967</v>
+        <v>0.347480620437174</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1402,40 +1396,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>0.0498181364460253</v>
+        <v>0.0484601053717878</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0502805903646013</v>
+        <v>0.0481403344211418</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0429440017432779</v>
+        <v>0.0409694649052392</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0427563907179781</v>
+        <v>0.0413182910024347</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0416173845732275</v>
+        <v>0.0395398031348472</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.403777101007722</v>
+        <v>0.0362958575252432</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.530095561299871</v>
+        <v>0.0394984598165398</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.421050929095652</v>
+        <v>0.0393540886638772</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.482985492347488</v>
+        <v>0.0429307369308528</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.396047803519493</v>
+        <v>0.452983316806002</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.33131784823908</v>
+        <v>0.425158013101566</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.452845134981399</v>
+        <v>0.298427227356087</v>
       </c>
     </row>
   </sheetData>
@@ -1460,8 +1454,8 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1470,7 +1464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1480,10 +1474,7 @@
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.77"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D1" s="0" t="s">
@@ -2317,8 +2308,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2327,20 +2318,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="n">
@@ -2730,8 +2718,8 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2740,7 +2728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2750,10 +2738,7 @@
       <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="n">
@@ -3143,8 +3128,8 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3153,20 +3138,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="n">
@@ -3211,40 +3193,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>0.226451892297502</v>
+        <v>0.193332688364574</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>0.47814047548045</v>
+        <v>0.420770776752959</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.516688238820681</v>
+        <v>0.421524558126723</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0.291367645689087</v>
+        <v>0.522131375048487</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>0.418514970469223</v>
+        <v>0.43660874968085</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>0.349110852951998</v>
+        <v>0.466474453005329</v>
       </c>
       <c r="H2" s="5" t="n">
-        <v>0.310619879961606</v>
+        <v>0.548412783733891</v>
       </c>
       <c r="I2" s="5" t="n">
-        <v>0.316706439104026</v>
+        <v>0.507923667316913</v>
       </c>
       <c r="J2" s="5" t="n">
-        <v>0.341378093257694</v>
+        <v>0.584925794765071</v>
       </c>
       <c r="K2" s="5" t="n">
-        <v>0.472655452538767</v>
+        <v>0.402431600736376</v>
       </c>
       <c r="L2" s="5" t="n">
-        <v>0.40702380647433</v>
+        <v>0.387135954096391</v>
       </c>
       <c r="M2" s="5" t="n">
-        <v>0.269025594942829</v>
+        <v>0.16546122369556</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3252,40 +3234,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>0.0927770017320789</v>
+        <v>0.600092057075252</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>0.688280573591175</v>
+        <v>0.586440697649474</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0.67834480721357</v>
+        <v>0.603701665662768</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>0.724498205491889</v>
+        <v>0.484417239176596</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>0.576537962930222</v>
+        <v>0.49418819593235</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>0.539588962936007</v>
+        <v>0.462473878641405</v>
       </c>
       <c r="H3" s="5" t="n">
-        <v>0.548816585610905</v>
+        <v>0.575335931059599</v>
       </c>
       <c r="I3" s="5" t="n">
-        <v>0.591909475111371</v>
+        <v>0.534025506045585</v>
       </c>
       <c r="J3" s="5" t="n">
-        <v>0.545406022436813</v>
+        <v>0.505705398020888</v>
       </c>
       <c r="K3" s="5" t="n">
-        <v>0.495474346388599</v>
+        <v>0.497797738207698</v>
       </c>
       <c r="L3" s="5" t="n">
-        <v>0.440075353658944</v>
+        <v>0.595554655915218</v>
       </c>
       <c r="M3" s="5" t="n">
-        <v>0.586522712211284</v>
+        <v>0.430339826173101</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3293,40 +3275,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>0.0861224146587724</v>
+        <v>0.651946700735646</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.04517083824804</v>
+        <v>0.473366193743431</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.0421154328124041</v>
+        <v>0.57974465219673</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.0417481264762001</v>
+        <v>0.469223181709859</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.542673034603632</v>
+        <v>0.538164156603543</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>0.620777698748402</v>
+        <v>0.486657918008514</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.496598321963844</v>
+        <v>0.515441919759935</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>0.478400735253464</v>
+        <v>0.43028987332346</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.533991092639955</v>
+        <v>0.529927771108852</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.531803667611491</v>
+        <v>0.463979502819539</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>0.474929741635578</v>
+        <v>0.589467373061086</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>0.68478164524664</v>
+        <v>0.495557041600776</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3334,40 +3316,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>0.0845554086346782</v>
+        <v>0.0421631276618232</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0519525788790754</v>
+        <v>0.0421679362991214</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0450900289312891</v>
+        <v>0.0427808721920445</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0394512274977751</v>
+        <v>0.470161018082066</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0391041426951875</v>
+        <v>0.462622623719626</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0410987126945713</v>
+        <v>0.421051134177035</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.444234620610428</v>
+        <v>0.56695831933755</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.48635578168602</v>
+        <v>0.434073119884713</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.692489864470699</v>
+        <v>0.482736410040006</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.524038325882546</v>
+        <v>0.453743464909573</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.552934369816685</v>
+        <v>0.649610787753811</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.656535006232496</v>
+        <v>0.566129980923645</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3375,40 +3357,40 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>0.0703217086851247</v>
+        <v>0.0432114669072413</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0479034916317369</v>
+        <v>0.0460817387091755</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0448197611602813</v>
+        <v>0.0426899899820409</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0389513694531028</v>
+        <v>0.450476190007177</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0390286480235004</v>
+        <v>0.417434791369446</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0388800936608514</v>
+        <v>0.506440061532123</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0387435643069386</v>
+        <v>0.589579721208976</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0387699087349598</v>
+        <v>0.499517323607065</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.698908675218069</v>
+        <v>0.532325648297147</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.633148544263373</v>
+        <v>0.496976462360817</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.477961020050602</v>
+        <v>0.615136588180303</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.686483685307005</v>
+        <v>0.661463085349594</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3416,40 +3398,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>0.0709241487763862</v>
+        <v>0.0424992593775732</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.0448349402846813</v>
+        <v>0.0404492388506737</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.0405909431946025</v>
+        <v>0.0407582825935193</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0395016048181104</v>
+        <v>0.0416026852133025</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0384742243650969</v>
+        <v>0.428454422912412</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.0385071347324334</v>
+        <v>0.46466589590947</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.0380334658866026</v>
+        <v>0.545727240008858</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.67424649449719</v>
+        <v>0.480847443825825</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.677015181633357</v>
+        <v>0.435678092233662</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.387918974321574</v>
+        <v>0.497260904060585</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>0.446951080269898</v>
+        <v>0.641037107906252</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>0.680425611738408</v>
+        <v>0.721221939958811</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3457,40 +3439,40 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>0.0687124327844288</v>
+        <v>0.0415906793559307</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0437627783837766</v>
+        <v>0.0403438788590684</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0395291948747671</v>
+        <v>0.0414148315821297</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0393301059545418</v>
+        <v>0.0415264536560527</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.038435333509627</v>
+        <v>0.0420249021041399</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0385059379481069</v>
+        <v>0.458165052375869</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0379802702224721</v>
+        <v>0.586019945055828</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0383192799685888</v>
+        <v>0.441898349616995</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.309604386237985</v>
+        <v>0.426268477528316</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.533916190712542</v>
+        <v>0.410796584161923</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.612222416345645</v>
+        <v>0.680904489081722</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.619571863638056</v>
+        <v>0.673401016729786</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3498,40 +3480,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>0.0711982616856136</v>
+        <v>0.0436400764701289</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0432313179987104</v>
+        <v>0.0416711249386004</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0388537425483358</v>
+        <v>0.045162614557547</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0389501714439751</v>
+        <v>0.0411017227830066</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0389705380486024</v>
+        <v>0.0452049835699193</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0387980511393075</v>
+        <v>0.428640253652995</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0379228979334392</v>
+        <v>0.486448877762203</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0391382993583902</v>
+        <v>0.42874856965759</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.037414050714681</v>
+        <v>0.459806714624</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.565634036612296</v>
+        <v>0.398320363946957</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.469767449065803</v>
+        <v>0.4836939511036</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.557815029646845</v>
+        <v>0.641163623114684</v>
       </c>
     </row>
   </sheetData>
@@ -3556,8 +3538,8 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3566,7 +3548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3576,10 +3558,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="n">
@@ -3624,40 +3603,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>0.387934670415092</v>
+        <v>0.345756417878252</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>0.559453827594701</v>
+        <v>0.469776024337836</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.683290987294947</v>
+        <v>0.404471501077257</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0.377851073234584</v>
+        <v>0.411673251505848</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>0.554830554603239</v>
+        <v>0.398912903485682</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>0.439654075287293</v>
+        <v>0.376987309794453</v>
       </c>
       <c r="H2" s="5" t="n">
-        <v>0.411830058743051</v>
+        <v>0.456052686869599</v>
       </c>
       <c r="I2" s="5" t="n">
-        <v>0.36150786311561</v>
+        <v>0.424460990518575</v>
       </c>
       <c r="J2" s="5" t="n">
-        <v>0.415448786782571</v>
+        <v>0.503302780531886</v>
       </c>
       <c r="K2" s="5" t="n">
-        <v>0.195554631222069</v>
+        <v>0.459984982792237</v>
       </c>
       <c r="L2" s="5" t="n">
-        <v>0.456193217584716</v>
+        <v>0.334065726893814</v>
       </c>
       <c r="M2" s="5" t="n">
-        <v>0.427606805710506</v>
+        <v>0.422359991523096</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3665,40 +3644,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>0.0429029582391225</v>
+        <v>0.486419446428702</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>0.642841927681146</v>
+        <v>0.455242728350745</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0.58704528437231</v>
+        <v>0.463786212778494</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>0.531239041597381</v>
+        <v>0.486989388975336</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>0.532253372646837</v>
+        <v>0.477025068612383</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>0.543512857190033</v>
+        <v>0.461168803130349</v>
       </c>
       <c r="H3" s="5" t="n">
-        <v>0.452513175983495</v>
+        <v>0.451535325277654</v>
       </c>
       <c r="I3" s="5" t="n">
-        <v>0.55910680682923</v>
+        <v>0.429805442897271</v>
       </c>
       <c r="J3" s="5" t="n">
-        <v>0.631361148521496</v>
+        <v>0.478884793920888</v>
       </c>
       <c r="K3" s="5" t="n">
-        <v>0.250636364788908</v>
+        <v>0.429426229821883</v>
       </c>
       <c r="L3" s="5" t="n">
-        <v>0.449114790303679</v>
+        <v>0.429515858843058</v>
       </c>
       <c r="M3" s="5" t="n">
-        <v>0.437882665729421</v>
+        <v>0.505047890576981</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3706,40 +3685,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>0.0534255566839905</v>
+        <v>0.408080526590236</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.0420059375737998</v>
+        <v>0.0554692818162282</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.0408119835577186</v>
+        <v>0.448193598801791</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.0419776153895714</v>
+        <v>0.67495911397668</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.0431373211962248</v>
+        <v>0.424427584870726</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>0.346687446057324</v>
+        <v>0.469170252996338</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.589980806903528</v>
+        <v>0.458117959952079</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>0.560436904698716</v>
+        <v>0.400299675393723</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.465025044814233</v>
+        <v>0.447433372516176</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.381351722436796</v>
+        <v>0.442033765438703</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>0.296768564591168</v>
+        <v>0.403042330087851</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>0.376518556568848</v>
+        <v>0.452076729724744</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3747,40 +3726,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>0.0504893735601894</v>
+        <v>0.0422578961799128</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0470403611618623</v>
+        <v>0.0417178535234036</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.040364495342919</v>
+        <v>0.35212936718854</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0398071317375487</v>
+        <v>0.460193101319566</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0405872808330067</v>
+        <v>0.421939564594473</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0421120115259709</v>
+        <v>0.445433416556382</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0391115812827499</v>
+        <v>0.565817517751337</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.592486560065683</v>
+        <v>0.423368651473063</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.591073961899519</v>
+        <v>0.452758311434316</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.542246866984253</v>
+        <v>0.454126247447844</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.347528110864949</v>
+        <v>0.388771965848543</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.430968745762039</v>
+        <v>0.472014706469956</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3788,40 +3767,40 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>0.0483781530926499</v>
+        <v>0.0407694386989936</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0475649731384739</v>
+        <v>0.0399662896410194</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0393379172915559</v>
+        <v>0.039990260634921</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0403813053555882</v>
+        <v>0.356664504589351</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0399378589788277</v>
+        <v>0.456624781093517</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0397777535072042</v>
+        <v>0.415954898083643</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0393984132898556</v>
+        <v>0.540130404061765</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.474930877931336</v>
+        <v>0.398301169936679</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.520220513535218</v>
+        <v>0.456115174160497</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.627109731725991</v>
+        <v>0.569118418412903</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.237379466589815</v>
+        <v>0.495147253844033</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.483111686791694</v>
+        <v>0.516906606048303</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3829,40 +3808,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>0.0467399098150087</v>
+        <v>0.0424139532545028</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.0445079750241508</v>
+        <v>0.0402102562846816</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.0397519742482836</v>
+        <v>0.0411171907033492</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0372550549795668</v>
+        <v>0.0395386298405624</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0400464284760275</v>
+        <v>0.350105189635207</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.0400074363066852</v>
+        <v>0.43495898212029</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.0384177406760888</v>
+        <v>0.539751421986226</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.0395392039282137</v>
+        <v>0.474027223935239</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.414593852307036</v>
+        <v>0.442071578379563</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.72810264345347</v>
+        <v>0.42826126745555</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>0.228759599200654</v>
+        <v>0.478213585981622</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>0.342658857292657</v>
+        <v>0.544357550960776</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3870,40 +3849,40 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>0.0572477980810816</v>
+        <v>0.0491388424652195</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0488272456410112</v>
+        <v>0.040373976586243</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0419270016176851</v>
+        <v>0.040340987677728</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0398275178000259</v>
+        <v>0.0411033714082134</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.039654866129045</v>
+        <v>0.0403625801345409</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0388207510596773</v>
+        <v>0.443344010724635</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0387023204857894</v>
+        <v>0.48700616331957</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0381614198021176</v>
+        <v>0.447211380094521</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.477774939294871</v>
+        <v>0.437240134619086</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.60328385224061</v>
+        <v>0.398714371991486</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.488673232060847</v>
+        <v>0.484545593203555</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.347480620437174</v>
+        <v>0.510623155240967</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3911,40 +3890,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>0.0484601053717878</v>
+        <v>0.0498181364460253</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0481403344211418</v>
+        <v>0.0502805903646013</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0409694649052392</v>
+        <v>0.0429440017432779</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0413182910024347</v>
+        <v>0.0427563907179781</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0395398031348472</v>
+        <v>0.0416173845732275</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0362958575252432</v>
+        <v>0.403777101007722</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0394984598165398</v>
+        <v>0.530095561299871</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0393540886638772</v>
+        <v>0.421050929095652</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.0429307369308528</v>
+        <v>0.482985492347488</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.452983316806002</v>
+        <v>0.396047803519493</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.425158013101566</v>
+        <v>0.33131784823908</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.298427227356087</v>
+        <v>0.452845134981399</v>
       </c>
     </row>
   </sheetData>
@@ -3969,8 +3948,8 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3979,7 +3958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3989,10 +3968,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="n">
@@ -4382,8 +4358,8 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4392,20 +4368,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="n">
@@ -4795,8 +4768,8 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4805,20 +4778,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="n">
@@ -4863,40 +4833,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>0.193332688364574</v>
+        <v>0.226451892297502</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>0.420770776752959</v>
+        <v>0.47814047548045</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.421524558126723</v>
+        <v>0.516688238820681</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0.522131375048487</v>
+        <v>0.291367645689087</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>0.43660874968085</v>
+        <v>0.418514970469223</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>0.466474453005329</v>
+        <v>0.349110852951998</v>
       </c>
       <c r="H2" s="5" t="n">
-        <v>0.548412783733891</v>
+        <v>0.310619879961606</v>
       </c>
       <c r="I2" s="5" t="n">
-        <v>0.507923667316913</v>
+        <v>0.316706439104026</v>
       </c>
       <c r="J2" s="5" t="n">
-        <v>0.584925794765071</v>
+        <v>0.341378093257694</v>
       </c>
       <c r="K2" s="5" t="n">
-        <v>0.402431600736376</v>
+        <v>0.472655452538767</v>
       </c>
       <c r="L2" s="5" t="n">
-        <v>0.387135954096391</v>
+        <v>0.40702380647433</v>
       </c>
       <c r="M2" s="5" t="n">
-        <v>0.16546122369556</v>
+        <v>0.269025594942829</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4904,40 +4874,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>0.600092057075252</v>
+        <v>0.0927770017320789</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>0.586440697649474</v>
+        <v>0.688280573591175</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0.603701665662768</v>
+        <v>0.67834480721357</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>0.484417239176596</v>
+        <v>0.724498205491889</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>0.49418819593235</v>
+        <v>0.576537962930222</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>0.462473878641405</v>
+        <v>0.539588962936007</v>
       </c>
       <c r="H3" s="5" t="n">
-        <v>0.575335931059599</v>
+        <v>0.548816585610905</v>
       </c>
       <c r="I3" s="5" t="n">
-        <v>0.534025506045585</v>
+        <v>0.591909475111371</v>
       </c>
       <c r="J3" s="5" t="n">
-        <v>0.505705398020888</v>
+        <v>0.545406022436813</v>
       </c>
       <c r="K3" s="5" t="n">
-        <v>0.497797738207698</v>
+        <v>0.495474346388599</v>
       </c>
       <c r="L3" s="5" t="n">
-        <v>0.595554655915218</v>
+        <v>0.440075353658944</v>
       </c>
       <c r="M3" s="5" t="n">
-        <v>0.430339826173101</v>
+        <v>0.586522712211284</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4945,40 +4915,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>0.651946700735646</v>
+        <v>0.0861224146587724</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.473366193743431</v>
+        <v>0.04517083824804</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.57974465219673</v>
+        <v>0.0421154328124041</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.469223181709859</v>
+        <v>0.0417481264762001</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.538164156603543</v>
+        <v>0.542673034603632</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>0.486657918008514</v>
+        <v>0.620777698748402</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.515441919759935</v>
+        <v>0.496598321963844</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>0.43028987332346</v>
+        <v>0.478400735253464</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.529927771108852</v>
+        <v>0.533991092639955</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.463979502819539</v>
+        <v>0.531803667611491</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>0.589467373061086</v>
+        <v>0.474929741635578</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>0.495557041600776</v>
+        <v>0.68478164524664</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4986,40 +4956,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>0.0421631276618232</v>
+        <v>0.0845554086346782</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0421679362991214</v>
+        <v>0.0519525788790754</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0427808721920445</v>
+        <v>0.0450900289312891</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.470161018082066</v>
+        <v>0.0394512274977751</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.462622623719626</v>
+        <v>0.0391041426951875</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.421051134177035</v>
+        <v>0.0410987126945713</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.56695831933755</v>
+        <v>0.444234620610428</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.434073119884713</v>
+        <v>0.48635578168602</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.482736410040006</v>
+        <v>0.692489864470699</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.453743464909573</v>
+        <v>0.524038325882546</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.649610787753811</v>
+        <v>0.552934369816685</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.566129980923645</v>
+        <v>0.656535006232496</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5027,40 +4997,40 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>0.0432114669072413</v>
+        <v>0.0703217086851247</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0460817387091755</v>
+        <v>0.0479034916317369</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0426899899820409</v>
+        <v>0.0448197611602813</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.450476190007177</v>
+        <v>0.0389513694531028</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.417434791369446</v>
+        <v>0.0390286480235004</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.506440061532123</v>
+        <v>0.0388800936608514</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.589579721208976</v>
+        <v>0.0387435643069386</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.499517323607065</v>
+        <v>0.0387699087349598</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.532325648297147</v>
+        <v>0.698908675218069</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.496976462360817</v>
+        <v>0.633148544263373</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.615136588180303</v>
+        <v>0.477961020050602</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.661463085349594</v>
+        <v>0.686483685307005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5068,40 +5038,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>0.0424992593775732</v>
+        <v>0.0709241487763862</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.0404492388506737</v>
+        <v>0.0448349402846813</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.0407582825935193</v>
+        <v>0.0405909431946025</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0416026852133025</v>
+        <v>0.0395016048181104</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.428454422912412</v>
+        <v>0.0384742243650969</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.46466589590947</v>
+        <v>0.0385071347324334</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.545727240008858</v>
+        <v>0.0380334658866026</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.480847443825825</v>
+        <v>0.67424649449719</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.435678092233662</v>
+        <v>0.677015181633357</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.497260904060585</v>
+        <v>0.387918974321574</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>0.641037107906252</v>
+        <v>0.446951080269898</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>0.721221939958811</v>
+        <v>0.680425611738408</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5109,40 +5079,40 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>0.0415906793559307</v>
+        <v>0.0687124327844288</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0403438788590684</v>
+        <v>0.0437627783837766</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0414148315821297</v>
+        <v>0.0395291948747671</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0415264536560527</v>
+        <v>0.0393301059545418</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0420249021041399</v>
+        <v>0.038435333509627</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.458165052375869</v>
+        <v>0.0385059379481069</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.586019945055828</v>
+        <v>0.0379802702224721</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.441898349616995</v>
+        <v>0.0383192799685888</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.426268477528316</v>
+        <v>0.309604386237985</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.410796584161923</v>
+        <v>0.533916190712542</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.680904489081722</v>
+        <v>0.612222416345645</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.673401016729786</v>
+        <v>0.619571863638056</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5150,40 +5120,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>0.0436400764701289</v>
+        <v>0.0711982616856136</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0416711249386004</v>
+        <v>0.0432313179987104</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.045162614557547</v>
+        <v>0.0388537425483358</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0411017227830066</v>
+        <v>0.0389501714439751</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0452049835699193</v>
+        <v>0.0389705380486024</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.428640253652995</v>
+        <v>0.0387980511393075</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.486448877762203</v>
+        <v>0.0379228979334392</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.42874856965759</v>
+        <v>0.0391382993583902</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.459806714624</v>
+        <v>0.037414050714681</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.398320363946957</v>
+        <v>0.565634036612296</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4836939511036</v>
+        <v>0.469767449065803</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.641163623114684</v>
+        <v>0.557815029646845</v>
       </c>
     </row>
   </sheetData>
@@ -5208,8 +5178,8 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
